--- a/ValueSet-pco-categories.xlsx
+++ b/ValueSet-pco-categories.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-pco-categories.xlsx
+++ b/ValueSet-pco-categories.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>What Matters</t>
+  </si>
+  <si>
+    <t>well-being</t>
+  </si>
+  <si>
+    <t>Well-Being</t>
   </si>
   <si>
     <t/>
@@ -387,7 +393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +432,23 @@
         <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
